--- a/data/trans_dic/P07_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P07_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1464575004314672</v>
+        <v>0.1452844603758612</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1542259000816562</v>
+        <v>0.1534064427137527</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1373386255250974</v>
+        <v>0.1392437420414063</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1963188305210284</v>
+        <v>0.1949551207799337</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2630813904227548</v>
+        <v>0.2652716145084764</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2418958891985535</v>
+        <v>0.2415086210089137</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2371562674941737</v>
+        <v>0.2406425910863288</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2463076106153557</v>
+        <v>0.2456658877241826</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2135068623063387</v>
+        <v>0.2125818247593571</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2066363872485311</v>
+        <v>0.206704140655459</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1967238595620198</v>
+        <v>0.1928585607409783</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2288735977206474</v>
+        <v>0.2286657783052338</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2031349833609181</v>
+        <v>0.2042738750524972</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2144191067515324</v>
+        <v>0.2122744559660768</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1960579838799701</v>
+        <v>0.1971094230613714</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2588480294315259</v>
+        <v>0.2618747090835538</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3334090745973911</v>
+        <v>0.3334554813530715</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3107129214790105</v>
+        <v>0.3092979175590673</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3086010385964672</v>
+        <v>0.3121968103193338</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2961824174038791</v>
+        <v>0.2970014998344617</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2586730323686544</v>
+        <v>0.2587427056838442</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2546576399680571</v>
+        <v>0.2527784549205748</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2425896145796875</v>
+        <v>0.2413148631152792</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2696769708551058</v>
+        <v>0.2702183050247793</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1321886030885026</v>
+        <v>0.1320229566450712</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1540924774320753</v>
+        <v>0.1517956974780602</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1333208322518284</v>
+        <v>0.1330850612639266</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1260878684408233</v>
+        <v>0.1240161412072073</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2879264782360132</v>
+        <v>0.2874489182252998</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2442644490498197</v>
+        <v>0.2463109861904542</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.211307118203893</v>
+        <v>0.2170262531748575</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2262452646140271</v>
+        <v>0.2250058758297929</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2169196607347078</v>
+        <v>0.2173108902609809</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2068652172241828</v>
+        <v>0.2068588575644126</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1809633207612031</v>
+        <v>0.1794691627880417</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1798878855364407</v>
+        <v>0.1813375839473912</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1785945955851827</v>
+        <v>0.178862198452036</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2010835859858177</v>
+        <v>0.2013232398456041</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.177677434703451</v>
+        <v>0.1785495453956701</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1668310689972847</v>
+        <v>0.1700440462392196</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3512355653986357</v>
+        <v>0.3485978287305886</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2991828555792438</v>
+        <v>0.3038137117094668</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2686030533291747</v>
+        <v>0.2710652859837224</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2690145756819932</v>
+        <v>0.2700059392807052</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2567523902180349</v>
+        <v>0.2575715216371328</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2446625137479031</v>
+        <v>0.2435183894018356</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2164029051966139</v>
+        <v>0.2164448736778867</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2121424804349908</v>
+        <v>0.2120059025747031</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2203304989934408</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2080477132314345</v>
+        <v>0.2080477132314346</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2113371854109304</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1308744609338906</v>
+        <v>0.1279036993805588</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1338311305163273</v>
+        <v>0.1376654437456879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1276342091699902</v>
+        <v>0.1326591855163785</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1221186834650822</v>
+        <v>0.1246698594048218</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2309955011860063</v>
+        <v>0.2293677614461634</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2444787057524489</v>
+        <v>0.2419588085660649</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.191681278804524</v>
+        <v>0.1911269732794429</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1855450010013911</v>
+        <v>0.1841382974898017</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1900919236848193</v>
+        <v>0.190374505298442</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2013681608809142</v>
+        <v>0.1978803208981744</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1694030413903283</v>
+        <v>0.1696240733175826</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1606049393832546</v>
+        <v>0.160271946265707</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1871065533584803</v>
+        <v>0.1875080840496096</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1932762280399827</v>
+        <v>0.1913650797568588</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1855182833813745</v>
+        <v>0.1873498331470438</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1761635469648773</v>
+        <v>0.1761864389781493</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2999781391989119</v>
+        <v>0.2961280785795676</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3175274284061424</v>
+        <v>0.3088702445446403</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2549553873740055</v>
+        <v>0.2537909290622135</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2332746591567827</v>
+        <v>0.2328473285848181</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2356938762217826</v>
+        <v>0.2362235979586396</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2442684628878476</v>
+        <v>0.2422244669363187</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2102247628028711</v>
+        <v>0.211458244704043</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.196325978185599</v>
+        <v>0.1989114497962793</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1247908244814967</v>
+        <v>0.1223929420260806</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1269705418933841</v>
+        <v>0.1253137212526777</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1278287873932383</v>
+        <v>0.1288880291212598</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1648195414631776</v>
+        <v>0.1651192295306438</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2387686589168312</v>
+        <v>0.2382400457171175</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2219248454673951</v>
+        <v>0.2202738202710274</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2063260103957345</v>
+        <v>0.2055140852355576</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2253214534662991</v>
+        <v>0.2266566293763905</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1891343714825513</v>
+        <v>0.1888134026262132</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1823834243706661</v>
+        <v>0.1824954914044222</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.17409787316349</v>
+        <v>0.1737282726549371</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2039178915692029</v>
+        <v>0.2036987613292481</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1698344347632277</v>
+        <v>0.1668877210293774</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1718687282525305</v>
+        <v>0.1724528218149097</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1756457342101673</v>
+        <v>0.1741831022414069</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2134982620359769</v>
+        <v>0.2117907912774162</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2915385119739334</v>
+        <v>0.2925151794216058</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2757569784236519</v>
+        <v>0.2749793704362349</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2618417072967991</v>
+        <v>0.2601098501982614</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2702010101238715</v>
+        <v>0.2698330849940112</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2263030331085347</v>
+        <v>0.2245544134979783</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2185699086246075</v>
+        <v>0.2195676117045655</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2104521015197412</v>
+        <v>0.2119006415363786</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2345893975961935</v>
+        <v>0.2349416832618959</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2387795265625872</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2431780153402356</v>
+        <v>0.2431780153402357</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2224187073177679</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1443366462692545</v>
+        <v>0.1446178915030684</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1541321102506827</v>
+        <v>0.1526201947139776</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1452918991516985</v>
+        <v>0.1448313245564578</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1624415003670778</v>
+        <v>0.1605343778179076</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2697077911959559</v>
+        <v>0.2720454620559379</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2522697632956984</v>
+        <v>0.2526439756098749</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2231041959526839</v>
+        <v>0.2237667378932236</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2317100508687194</v>
+        <v>0.2314195754240313</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2128443793144414</v>
+        <v>0.2123431289396614</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.207606824682769</v>
+        <v>0.2080451074747441</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1890285728891344</v>
+        <v>0.1886267062401934</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2000230596190743</v>
+        <v>0.2009125048145466</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.169698834533518</v>
+        <v>0.1693543465172622</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1810240302926411</v>
+        <v>0.180572625320316</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1698447452695475</v>
+        <v>0.1701648606579837</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1874437028055731</v>
+        <v>0.1872600976817307</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3022278479204258</v>
+        <v>0.301848903772208</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2832556602068557</v>
+        <v>0.2831634205444902</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2546073862325048</v>
+        <v>0.2539209308327107</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2542333518005936</v>
+        <v>0.2546608644120505</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.232520888144082</v>
+        <v>0.2330465522048144</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2288273829784732</v>
+        <v>0.2286172033633105</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2081573632248389</v>
+        <v>0.2081357279925384</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2172015819953718</v>
+        <v>0.2179322587593403</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>101643</v>
+        <v>100829</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>108377</v>
+        <v>107801</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>92676</v>
+        <v>93962</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>135599</v>
+        <v>134657</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>181092</v>
+        <v>182600</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>168614</v>
+        <v>168344</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>159568</v>
+        <v>161914</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>180834</v>
+        <v>180363</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>295144</v>
+        <v>293865</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>289243</v>
+        <v>289337</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>265113</v>
+        <v>259904</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>326119</v>
+        <v>325823</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>140978</v>
+        <v>141769</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>150676</v>
+        <v>149169</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>132300</v>
+        <v>133009</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>178789</v>
+        <v>180879</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>229502</v>
+        <v>229534</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>216582</v>
+        <v>215596</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>207639</v>
+        <v>210058</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>217451</v>
+        <v>218053</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>357580</v>
+        <v>357676</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>356461</v>
+        <v>353831</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>326923</v>
+        <v>325205</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>384260</v>
+        <v>385031</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>126996</v>
+        <v>126837</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>156551</v>
+        <v>154217</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>136175</v>
+        <v>135935</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>132256</v>
+        <v>130083</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>278826</v>
+        <v>278364</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>251412</v>
+        <v>253519</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>219700</v>
+        <v>225646</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>242272</v>
+        <v>240945</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>418462</v>
+        <v>419216</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>423084</v>
+        <v>423071</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>372989</v>
+        <v>369909</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>381318</v>
+        <v>384391</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>171579</v>
+        <v>171836</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>204291</v>
+        <v>204535</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>181482</v>
+        <v>182372</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>174992</v>
+        <v>178362</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>340134</v>
+        <v>337580</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>307938</v>
+        <v>312704</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>279272</v>
+        <v>281832</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>288071</v>
+        <v>289133</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>495303</v>
+        <v>496884</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>500388</v>
+        <v>498048</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>446035</v>
+        <v>446121</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>449690</v>
+        <v>449401</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>88799</v>
+        <v>86784</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>100953</v>
+        <v>103846</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>96945</v>
+        <v>100762</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>98070</v>
+        <v>100119</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>157964</v>
+        <v>156851</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>190002</v>
+        <v>188044</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>150276</v>
+        <v>149841</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>150711</v>
+        <v>149568</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>258972</v>
+        <v>259357</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>308397</v>
+        <v>303055</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>261481</v>
+        <v>261822</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>259430</v>
+        <v>258892</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>126953</v>
+        <v>127226</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>145795</v>
+        <v>144353</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>140911</v>
+        <v>142302</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>141472</v>
+        <v>141491</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>205137</v>
+        <v>202505</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>246774</v>
+        <v>240046</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>199882</v>
+        <v>198969</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>189479</v>
+        <v>189132</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>321098</v>
+        <v>321819</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>374099</v>
+        <v>370968</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>324491</v>
+        <v>326395</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>317132</v>
+        <v>321308</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>117581</v>
+        <v>115321</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>120210</v>
+        <v>118641</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>119361</v>
+        <v>120350</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>163182</v>
+        <v>163478</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>247988</v>
+        <v>247439</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>233014</v>
+        <v>231281</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>215150</v>
+        <v>214303</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>252144</v>
+        <v>253638</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>374644</v>
+        <v>374008</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>364169</v>
+        <v>364393</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>344108</v>
+        <v>343377</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>430084</v>
+        <v>429622</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>160022</v>
+        <v>157245</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>162717</v>
+        <v>163270</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>164010</v>
+        <v>162644</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>211377</v>
+        <v>209686</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>302795</v>
+        <v>303810</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>289537</v>
+        <v>288720</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>273039</v>
+        <v>271233</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>302366</v>
+        <v>301954</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>448269</v>
+        <v>444805</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>436424</v>
+        <v>438416</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>415962</v>
+        <v>418825</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>494773</v>
+        <v>495516</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>472769</v>
+        <v>473690</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>527094</v>
+        <v>521924</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>492469</v>
+        <v>490908</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>573867</v>
+        <v>567130</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>911396</v>
+        <v>919295</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>896430</v>
+        <v>897760</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>789635</v>
+        <v>791980</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>865742</v>
+        <v>864657</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1416406</v>
+        <v>1413070</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1447687</v>
+        <v>1450743</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1309747</v>
+        <v>1306962</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1453984</v>
+        <v>1460449</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>555842</v>
+        <v>554713</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>619058</v>
+        <v>617514</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>575691</v>
+        <v>576777</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>662194</v>
+        <v>661545</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1021287</v>
+        <v>1020007</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1006537</v>
+        <v>1006209</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>901135</v>
+        <v>898705</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>949897</v>
+        <v>951494</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1547347</v>
+        <v>1550845</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1595662</v>
+        <v>1594196</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1442287</v>
+        <v>1442137</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1578856</v>
+        <v>1584167</v>
       </c>
     </row>
     <row r="24">
